--- a/excel/内容数据.xlsx
+++ b/excel/内容数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="10308" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="437">
   <si>
     <t>标题</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>图片链接</t>
+  </si>
+  <si>
+    <t>是否新增</t>
+  </si>
+  <si>
+    <t>未处理文件名</t>
   </si>
   <si>
     <t>《百年孤独》摘句</t>
@@ -1371,9 +1377,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1402,7 +1408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1416,9 +1422,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1426,14 +1471,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1452,9 +1489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,16 +1505,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1486,22 +1514,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1513,23 +1534,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1538,43 +1544,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,13 +1598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,13 +1628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,13 +1676,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,67 +1718,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,6 +1741,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1747,17 +1774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1771,41 +1798,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1829,6 +1832,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1837,10 +1849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1849,16 +1861,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1870,116 +1882,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1990,10 +2002,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2063,7 +2081,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2345,7 +2363,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2360,10 +2378,12 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2374,845 +2394,868 @@
     <col min="6" max="6" width="5.55555555555556" customWidth="1"/>
     <col min="7" max="7" width="6.11111111111111" customWidth="1"/>
     <col min="9" max="9" width="39.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="50.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="17.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3224,25 +3267,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="10.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="22.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="9.44444444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="10.7777777777778"/>
     <col min="6" max="6" width="5.11111111111111" customWidth="1"/>
     <col min="7" max="7" width="5.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="39.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3273,447 +3318,461 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
       <c r="H2" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3749,18 +3808,18 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3777,13 +3836,13 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3800,13 +3859,13 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3823,13 +3882,13 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3846,13 +3905,13 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3869,13 +3928,13 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3892,13 +3951,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3915,13 +3974,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3938,13 +3997,13 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3961,13 +4020,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3984,13 +4043,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4007,13 +4066,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -4030,13 +4089,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -4053,13 +4112,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -4076,13 +4135,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4099,13 +4158,13 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4122,13 +4181,13 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4145,13 +4204,13 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4168,13 +4227,13 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4191,13 +4250,13 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4214,13 +4273,13 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4272,7 +4331,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4284,13 +4343,13 @@
     </row>
     <row r="2" ht="43.2" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4302,13 +4361,13 @@
     </row>
     <row r="3" ht="43.2" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4320,13 +4379,13 @@
     </row>
     <row r="4" ht="43.2" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -4338,13 +4397,13 @@
     </row>
     <row r="5" ht="43.2" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -4356,13 +4415,13 @@
     </row>
     <row r="6" ht="28.8" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4374,13 +4433,13 @@
     </row>
     <row r="7" ht="57.6" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -4392,13 +4451,13 @@
     </row>
     <row r="8" ht="43.2" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -4410,13 +4469,13 @@
     </row>
     <row r="9" ht="43.2" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4428,13 +4487,13 @@
     </row>
     <row r="10" ht="43.2" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4446,13 +4505,13 @@
     </row>
     <row r="11" ht="72" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4464,13 +4523,13 @@
     </row>
     <row r="12" ht="43.2" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -4482,13 +4541,13 @@
     </row>
     <row r="13" ht="43.2" spans="1:10">
       <c r="A13" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4500,13 +4559,13 @@
     </row>
     <row r="14" ht="43.2" spans="1:10">
       <c r="A14" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4518,13 +4577,13 @@
     </row>
     <row r="15" ht="43.2" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4536,13 +4595,13 @@
     </row>
     <row r="16" ht="28.8" spans="1:10">
       <c r="A16" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4554,13 +4613,13 @@
     </row>
     <row r="17" ht="57.6" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4572,13 +4631,13 @@
     </row>
     <row r="18" ht="43.2" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -4590,13 +4649,13 @@
     </row>
     <row r="19" ht="57.6" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4608,13 +4667,13 @@
     </row>
     <row r="20" ht="43.2" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4626,13 +4685,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4644,13 +4703,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4662,13 +4721,13 @@
     </row>
     <row r="23" ht="28.8" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4680,13 +4739,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4698,13 +4757,13 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -4716,13 +4775,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -4734,13 +4793,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4776,19 +4835,19 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -4807,11 +4866,11 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -4830,11 +4889,11 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -4853,11 +4912,11 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4876,11 +4935,11 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4899,11 +4958,11 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4922,11 +4981,11 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -4945,11 +5004,11 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -4968,11 +5027,11 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -4991,11 +5050,11 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -5014,11 +5073,11 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -5037,11 +5096,11 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5060,11 +5119,11 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5083,11 +5142,11 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5106,11 +5165,11 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -5129,11 +5188,11 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5152,11 +5211,11 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5175,11 +5234,11 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5198,11 +5257,11 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -5221,13 +5280,13 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -5246,13 +5305,13 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
